--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108439.1995388645</v>
+        <v>-111140.8474413996</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>145.198658204325</v>
       </c>
       <c r="D2" t="n">
-        <v>145.198658204325</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>56.78801872180775</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>130.4949840230014</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,43 +832,43 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>52.21594625443444</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>52.10659845039903</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>99.90834194759347</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
@@ -944,25 +944,25 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.74710229131145</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>133.6926787005296</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>144.2957156879709</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.013305673653</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.441984600837</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>225.6012771342554</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>411.830884450382</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731851</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731748</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
         <v>251.0679046626562</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>79.10474321197398</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436603</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282938</v>
+        <v>30.34503645282967</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323793</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>91.70614836515819</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>25.83978495499256</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099045</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>191.764304879238</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>52.60560965822197</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>240.1044458298909</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1467,7 +1467,7 @@
         <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.4004880294582</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.5089280640925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>76.17049831699748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>72.97607332171745</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833858</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.52079624060451</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936188</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>108.9501037550971</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141634</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>34.22340015155882</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.93832930943146</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428075</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>212.5602966632231</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141634</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.58131130043</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576143</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.3852063573445</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>80.10107535865876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>95.25381996636061</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833784</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>60.86846495359787</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158252</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158252</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>224.59746731481</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>224.59746731481</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>217.6519665656065</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
         <v>15.00204697330559</v>
@@ -4361,19 +4361,19 @@
         <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
+        <v>750.1023486652795</v>
+      </c>
+      <c r="V2" t="n">
+        <v>750.1023486652795</v>
+      </c>
+      <c r="W2" t="n">
         <v>560.6825636487947</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>560.6825636487947</v>
       </c>
-      <c r="W2" t="n">
-        <v>371.26277863231</v>
-      </c>
-      <c r="X2" t="n">
-        <v>181.8429936158252</v>
-      </c>
       <c r="Y2" t="n">
-        <v>181.8429936158252</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.26277863231</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="C3" t="n">
-        <v>313.9011435597769</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="D3" t="n">
-        <v>313.9011435597769</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>313.9011435597769</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>313.9011435597769</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.654732181024</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.654732181024</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652795</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652795</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487947</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.26277863231</v>
+        <v>146.8151621480545</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
         <v>15.00204697330559</v>
@@ -4516,22 +4516,22 @@
         <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.4212798893554</v>
+        <v>422.3390791561944</v>
       </c>
       <c r="C5" t="n">
-        <v>844.4212798893554</v>
+        <v>422.3390791561944</v>
       </c>
       <c r="D5" t="n">
-        <v>844.4212798893554</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E5" t="n">
-        <v>458.6330272911112</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F5" t="n">
-        <v>451.6875265419077</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G5" t="n">
         <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N5" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="U5" t="n">
-        <v>1914.852662567162</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V5" t="n">
-        <v>1583.789775223591</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="W5" t="n">
-        <v>1231.021119953477</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="X5" t="n">
-        <v>1231.021119953477</v>
+        <v>1199.078251196128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1231.021119953477</v>
+        <v>808.9389192203162</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>522.0570375238831</v>
+        <v>327.3467159978591</v>
       </c>
       <c r="C6" t="n">
-        <v>347.6040082427561</v>
+        <v>327.3467159978591</v>
       </c>
       <c r="D6" t="n">
-        <v>347.6040082427561</v>
+        <v>178.4123063366078</v>
       </c>
       <c r="E6" t="n">
-        <v>188.3665532373006</v>
+        <v>178.4123063366078</v>
       </c>
       <c r="F6" t="n">
-        <v>175.490692336986</v>
+        <v>178.4123063366078</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J6" t="n">
         <v>89.55356510562316</v>
@@ -4674,22 +4674,22 @@
         <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1595.273638474382</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1595.273638474382</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="V6" t="n">
-        <v>1360.121530242639</v>
+        <v>1165.411208716615</v>
       </c>
       <c r="W6" t="n">
-        <v>1105.884173514438</v>
+        <v>911.1738519884138</v>
       </c>
       <c r="X6" t="n">
-        <v>898.032673308905</v>
+        <v>703.322351782881</v>
       </c>
       <c r="Y6" t="n">
-        <v>690.2723745439512</v>
+        <v>495.5620530179271</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.1224447077607</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C7" t="n">
-        <v>189.1224447077607</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K7" t="n">
         <v>92.71685897981521</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>189.1224447077607</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>189.1224447077607</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U7" t="n">
-        <v>189.1224447077607</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V7" t="n">
-        <v>189.1224447077607</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W7" t="n">
-        <v>189.1224447077607</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X7" t="n">
-        <v>189.1224447077607</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.1224447077607</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.23689334233345</v>
+        <v>1422.385590843289</v>
       </c>
       <c r="C8" t="n">
-        <v>63.23689334233345</v>
+        <v>1053.423073902877</v>
       </c>
       <c r="D8" t="n">
-        <v>63.23689334233345</v>
+        <v>695.1573752961267</v>
       </c>
       <c r="E8" t="n">
-        <v>63.23689334233345</v>
+        <v>467.2772973827373</v>
       </c>
       <c r="F8" t="n">
-        <v>56.29139259312998</v>
+        <v>460.3317966335339</v>
       </c>
       <c r="G8" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="J8" t="n">
-        <v>156.82805594203</v>
+        <v>156.8280559420296</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002251</v>
+        <v>376.1555054002233</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707955</v>
+        <v>685.1523625707921</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937553</v>
+        <v>1060.640340937547</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733712</v>
+        <v>1446.817915733705</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659516</v>
+        <v>1798.139187659506</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284341</v>
+        <v>2063.48276428433</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228524</v>
+        <v>2214.571993228512</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970539</v>
+        <v>2217.050212970527</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.832821179443</v>
+        <v>2217.050212970527</v>
       </c>
       <c r="T8" t="n">
-        <v>1875.835030499469</v>
+        <v>2007.052422290553</v>
       </c>
       <c r="U8" t="n">
-        <v>1622.231086395775</v>
+        <v>1753.448478186859</v>
       </c>
       <c r="V8" t="n">
-        <v>1291.168199052205</v>
+        <v>1422.385590843289</v>
       </c>
       <c r="W8" t="n">
-        <v>938.3995437820906</v>
+        <v>1422.385590843289</v>
       </c>
       <c r="X8" t="n">
-        <v>564.9337855210108</v>
+        <v>1422.385590843289</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.7944535451991</v>
+        <v>1422.385590843289</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>646.0579143496494</v>
+        <v>273.1791949428577</v>
       </c>
       <c r="C9" t="n">
-        <v>471.6048850685224</v>
+        <v>193.2754139206618</v>
       </c>
       <c r="D9" t="n">
-        <v>471.6048850685224</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="E9" t="n">
-        <v>312.3674300630669</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3674300630669</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904268</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803682</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113553</v>
+        <v>92.51967467113485</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154171</v>
+        <v>253.0195209154157</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572558</v>
+        <v>515.1539122572533</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449761</v>
+        <v>840.4092510449723</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738688</v>
+        <v>1188.681775738683</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074218</v>
+        <v>1485.063300074211</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566948</v>
+        <v>1703.602536566941</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257646</v>
+        <v>1799.771032257638</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285091</v>
+        <v>1769.119480285083</v>
       </c>
       <c r="S9" t="n">
-        <v>1630.554864058094</v>
+        <v>1769.119480285083</v>
       </c>
       <c r="T9" t="n">
-        <v>1435.931352611246</v>
+        <v>1574.495968838235</v>
       </c>
       <c r="U9" t="n">
-        <v>1343.298879515127</v>
+        <v>1346.395795893357</v>
       </c>
       <c r="V9" t="n">
-        <v>1108.146771283384</v>
+        <v>1111.243687661614</v>
       </c>
       <c r="W9" t="n">
-        <v>853.9094145551823</v>
+        <v>857.0063309334125</v>
       </c>
       <c r="X9" t="n">
-        <v>646.0579143496494</v>
+        <v>649.1548307278797</v>
       </c>
       <c r="Y9" t="n">
-        <v>646.0579143496494</v>
+        <v>441.3945319629258</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>342.3707372541396</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="C10" t="n">
-        <v>342.3707372541396</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="D10" t="n">
-        <v>192.2540978418039</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941079</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016791</v>
+        <v>95.74470838016718</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810369</v>
+        <v>191.4295496810356</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422672</v>
+        <v>295.5740818422652</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091263</v>
+        <v>405.0998157091237</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712747</v>
+        <v>485.9514692712715</v>
       </c>
       <c r="P10" t="n">
-        <v>536.072055313976</v>
+        <v>536.0720553139722</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.072055313976</v>
+        <v>514.7610849089314</v>
       </c>
       <c r="R10" t="n">
-        <v>536.072055313976</v>
+        <v>514.7610849089314</v>
       </c>
       <c r="S10" t="n">
-        <v>342.3707372541396</v>
+        <v>514.7610849089314</v>
       </c>
       <c r="T10" t="n">
-        <v>342.3707372541396</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="U10" t="n">
-        <v>342.3707372541396</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="V10" t="n">
-        <v>342.3707372541396</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="W10" t="n">
-        <v>342.3707372541396</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="X10" t="n">
-        <v>342.3707372541396</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="Y10" t="n">
-        <v>342.3707372541396</v>
+        <v>70.44179714324142</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1971.974114648351</v>
+        <v>1872.090169197693</v>
       </c>
       <c r="C11" t="n">
-        <v>1603.011597707939</v>
+        <v>1503.127652257282</v>
       </c>
       <c r="D11" t="n">
-        <v>1244.745899101189</v>
+        <v>1144.861953650531</v>
       </c>
       <c r="E11" t="n">
-        <v>858.957646502945</v>
+        <v>759.0737010522871</v>
       </c>
       <c r="F11" t="n">
-        <v>447.9717417133375</v>
+        <v>759.073701052287</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>344.4579364934324</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
@@ -5039,16 +5039,16 @@
         <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656956</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484042</v>
@@ -5063,28 +5063,28 @@
         <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796035</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.9046893774</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498928</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155357</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885243</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624163</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.974114648351</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5106,13 +5106,13 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592071</v>
@@ -5121,22 +5121,22 @@
         <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>612.5381326449926</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>1120.494698601521</v>
       </c>
       <c r="N12" t="n">
-        <v>1720.47842829169</v>
+        <v>1656.30400830273</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.419472624213</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
-        <v>2544.650348868987</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
         <v>2544.650348868987</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>518.9401063277001</v>
+        <v>184.1123407281355</v>
       </c>
       <c r="C13" t="n">
-        <v>518.9401063277001</v>
+        <v>184.1123407281355</v>
       </c>
       <c r="D13" t="n">
-        <v>368.8234669153643</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="E13" t="n">
-        <v>368.8234669153643</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
         <v>77.53766591592071</v>
@@ -5200,10 +5200,10 @@
         <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742807</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177248</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.379943126699</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1372.695454920812</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1083.278284883851</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>855.2887339858339</v>
+        <v>586.5533847019053</v>
       </c>
       <c r="Y13" t="n">
-        <v>634.4961548423038</v>
+        <v>365.7608055583752</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,10 +5264,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5285,19 +5285,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,7 +5449,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311999</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>632.755700703293</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909572</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085641</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614396</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5735,58 +5735,58 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>194.800778399829</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>194.800778399829</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>194.800778399829</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987579</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142535</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179083</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900014</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776657</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>295.5818533952726</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>172.349019141113</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.8888553856864</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>639.9526724577795</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D31" t="n">
-        <v>489.8360330454439</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>341.9229394630506</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>195.0329919651404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.5373202159261</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,22 +7017,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297718</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297718</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2337.284991357604</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.683526380545</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7260,19 +7260,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>526.5658826424044</v>
       </c>
       <c r="D40" t="n">
-        <v>408.9258559154851</v>
+        <v>376.4492432300686</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057242</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778174</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654817</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778174</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>357.863997255044</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.87305750948389</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.43149215247905</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.10654495411985</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.4141550350973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>72.44497470121379</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909865</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>177.5728945814939</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.725524766796</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>111.1976478713724</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823128</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>146.5858089828374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.3554390986505</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4.845153664065123</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.6341900408525</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.44497470121462</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922466</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>145.6085800303784</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>191.2691783702304</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823133</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>191.2691783702301</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>293035.6977097584</v>
+        <v>293035.6977097585</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="G2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="G2" t="n">
-        <v>322858.6398760026</v>
-      </c>
       <c r="H2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="L2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760024</v>
@@ -26350,10 +26350,10 @@
         <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264454</v>
+        <v>12262.8560326417</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674479</v>
+        <v>395943.9567674504</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770429</v>
+        <v>189308.2687704291</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>91259.95686487773</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349950312</v>
+        <v>3074.447349949584</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931112</v>
+        <v>103409.260893112</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320236</v>
+        <v>49839.57413202366</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888978</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607414</v>
+        <v>170817.8827607422</v>
       </c>
       <c r="E4" t="n">
         <v>15331.22144723313</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="L4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404183</v>
+        <v>86153.75444404161</v>
       </c>
       <c r="E5" t="n">
         <v>85137.48506738566</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-598462.5598208755</v>
+        <v>-598462.5598208756</v>
       </c>
       <c r="C6" t="n">
         <v>-323495.6082852343</v>
       </c>
       <c r="D6" t="n">
-        <v>59182.21470828571</v>
+        <v>59182.21470828788</v>
       </c>
       <c r="E6" t="n">
-        <v>-203376.9655723083</v>
+        <v>-203598.0968862854</v>
       </c>
       <c r="F6" t="n">
-        <v>16991.20127478668</v>
+        <v>16956.46334935073</v>
       </c>
       <c r="G6" t="n">
-        <v>206299.4700452156</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="H6" t="n">
-        <v>206299.4700452157</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="I6" t="n">
-        <v>206299.4700452157</v>
+        <v>206264.7321197799</v>
       </c>
       <c r="J6" t="n">
-        <v>157234.525316671</v>
+        <v>157199.7873912353</v>
       </c>
       <c r="K6" t="n">
-        <v>115039.5131803378</v>
+        <v>115004.7752549021</v>
       </c>
       <c r="L6" t="n">
-        <v>203225.0226952652</v>
+        <v>203190.2847698304</v>
       </c>
       <c r="M6" t="n">
-        <v>102890.2091521043</v>
+        <v>102855.471226668</v>
       </c>
       <c r="N6" t="n">
-        <v>156459.8959131918</v>
+        <v>156425.1579877561</v>
       </c>
       <c r="O6" t="n">
-        <v>206299.4700452156</v>
+        <v>206264.7321197798</v>
       </c>
       <c r="P6" t="n">
-        <v>206299.4700452156</v>
+        <v>206264.7321197798</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573227</v>
+        <v>863.6234498573205</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26790,13 +26790,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426348</v>
+        <v>554.2625532426318</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490088</v>
+        <v>969.2208239490089</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319638601</v>
+        <v>9.912785319636328</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576277</v>
+        <v>338.6177873576297</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651647159</v>
+        <v>12.14759651646872</v>
       </c>
       <c r="E4" t="n">
-        <v>414.958270706374</v>
+        <v>414.9582707063771</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647159</v>
+        <v>12.14759651646872</v>
       </c>
       <c r="M4" t="n">
-        <v>414.958270706374</v>
+        <v>414.9582707063771</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647159</v>
+        <v>12.14759651646872</v>
       </c>
       <c r="M4" t="n">
-        <v>414.958270706374</v>
+        <v>414.9582707063771</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>220.0742335666826</v>
       </c>
       <c r="D2" t="n">
-        <v>209.484383416358</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27433,7 +27433,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871047</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>115.920480266508</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>16.95008154163736</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265839</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27515,16 +27515,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,7 +27552,7 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2177245773851</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27588,7 +27588,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>302.5764431702839</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>311.9623928960333</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>132.3221101020724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>1.814555146505654</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>4.31975733024143</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
@@ -27831,10 +27831,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.50969266293802</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>272.2918570626436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>156.3290929380063</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163649</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151369</v>
+        <v>76.62727429151403</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>93.60375577634176</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29488917436609</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433994</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>134.1130228502708</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>153.9921952269447</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332402</v>
+        <v>16.8905104633243</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099011</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.269103131361</v>
+        <v>107.2691031313612</v>
       </c>
       <c r="S10" t="n">
-        <v>5.111864413857433</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2340827876525</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753053</v>
+        <v>3.471853064753045</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940222</v>
+        <v>35.55611519940212</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788922</v>
+        <v>133.8486152788919</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545848</v>
+        <v>294.669189054584</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855816</v>
+        <v>441.6327292855804</v>
       </c>
       <c r="L8" t="n">
-        <v>547.884452516018</v>
+        <v>547.8844525160165</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563201</v>
+        <v>609.6270194563184</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765498</v>
+        <v>619.4914219765481</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639115</v>
+        <v>584.9681830639099</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278204</v>
+        <v>499.2568105278191</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463515</v>
+        <v>374.9210726463506</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787942</v>
+        <v>218.0887900787936</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306029</v>
+        <v>79.11485171306008</v>
       </c>
       <c r="T8" t="n">
-        <v>15.1980367909565</v>
+        <v>15.19803679095646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802442</v>
+        <v>0.2777482451802435</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296883</v>
+        <v>1.857605156296878</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213043</v>
+        <v>17.94055506213038</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566023</v>
+        <v>63.95701963566006</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148735</v>
+        <v>175.5029503148731</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867646</v>
+        <v>299.9624957867638</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564789</v>
+        <v>403.3365932564778</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722408</v>
+        <v>470.6747801722396</v>
       </c>
       <c r="N9" t="n">
-        <v>483.132141066881</v>
+        <v>483.1321410668797</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510395</v>
+        <v>441.9715215510383</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423408</v>
+        <v>354.7211109423398</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230898</v>
+        <v>237.1216687230892</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111346</v>
+        <v>115.3344675111343</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911094</v>
+        <v>34.50420103911085</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442258</v>
+        <v>7.487452362442238</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458476</v>
+        <v>0.1222108655458473</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037795</v>
+        <v>1.557353762037791</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066331</v>
+        <v>13.84629072066328</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291843</v>
+        <v>46.83387495291831</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760721</v>
+        <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258456</v>
+        <v>180.9361916258451</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306009</v>
+        <v>231.5360311306003</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801609</v>
+        <v>244.1222810801602</v>
       </c>
       <c r="N10" t="n">
-        <v>238.317598876202</v>
+        <v>238.3175988762014</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833059</v>
+        <v>220.1248753833053</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377347</v>
+        <v>188.3548586377342</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284557</v>
+        <v>130.4071409284554</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580846</v>
+        <v>70.02428824580828</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387684</v>
+        <v>27.14042874387676</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343304</v>
+        <v>6.654147892343286</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842527</v>
+        <v>0.08494656883842505</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
         <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495314</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>457.6526467020653</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>489.9737736272093</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
         <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
@@ -31926,28 +31926,28 @@
         <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>202.2352659288688</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>510.682889626564</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>741.1502463817021</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4567226539314</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3779992811859</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>403.8524967138027</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,25 +33737,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802463</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>667.8124403339918</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278985</v>
+        <v>113.6232845278977</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406011</v>
+        <v>221.5428782405999</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460307</v>
+        <v>312.1180375460293</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290474</v>
+        <v>379.2807862290457</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799588</v>
+        <v>390.0783583799571</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422248</v>
+        <v>354.8699716422232</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725509</v>
+        <v>268.0238147725495</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719021</v>
+        <v>152.6153827719011</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264662081</v>
+        <v>2.503252264661484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820682</v>
+        <v>48.66532364820637</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124056</v>
+        <v>162.1210568124048</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766047</v>
+        <v>264.7822134766037</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502225</v>
+        <v>328.5407462502213</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835477</v>
+        <v>351.7904289835463</v>
       </c>
       <c r="O9" t="n">
-        <v>299.375277106595</v>
+        <v>299.3752771065939</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280105</v>
+        <v>220.7467035280096</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706832</v>
+        <v>97.1398946370677</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345531021</v>
+        <v>51.92293345530973</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936263</v>
+        <v>96.65135484936204</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325558</v>
+        <v>105.1964971325552</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109688</v>
+        <v>110.6320544109682</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146307</v>
+        <v>81.66833693146248</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858707</v>
+        <v>50.62685458858658</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
         <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>326.3109346187321</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>347.3775291827649</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655345</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>68.26085851453861</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5488557045456</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295337</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>161.9999866016179</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>609.8085342983688</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>138.9023428740572</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>77.54037261451921</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37148,16 +37148,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5107846304694</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942248</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>525.6784064119735</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
